--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Calca-Ramp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Calca-Ramp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.367714345031861</v>
+        <v>0.06082199999999999</v>
       </c>
       <c r="H2">
-        <v>0.367714345031861</v>
+        <v>0.182466</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1419252066466042</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1419252066466042</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.931210118275296</v>
+        <v>0.387828</v>
       </c>
       <c r="N2">
-        <v>0.931210118275296</v>
+        <v>1.163484</v>
       </c>
       <c r="O2">
-        <v>0.2813097373961229</v>
+        <v>0.08738110167492384</v>
       </c>
       <c r="P2">
-        <v>0.2813097373961229</v>
+        <v>0.08738110167492384</v>
       </c>
       <c r="Q2">
-        <v>0.3424193187286423</v>
+        <v>0.023588474616</v>
       </c>
       <c r="R2">
-        <v>0.3424193187286423</v>
+        <v>0.212296271544</v>
       </c>
       <c r="S2">
-        <v>0.2813097373961229</v>
+        <v>0.0124015809122215</v>
       </c>
       <c r="T2">
-        <v>0.2813097373961229</v>
+        <v>0.0124015809122215</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -593,49 +596,421 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.367714345031861</v>
+        <v>0.06082199999999999</v>
       </c>
       <c r="H3">
-        <v>0.367714345031861</v>
+        <v>0.182466</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1419252066466042</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1419252066466042</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.37905609182757</v>
+        <v>1.118589666666667</v>
       </c>
       <c r="N3">
-        <v>2.37905609182757</v>
+        <v>3.355769</v>
       </c>
       <c r="O3">
-        <v>0.7186902626038771</v>
+        <v>0.2520282119793289</v>
       </c>
       <c r="P3">
-        <v>0.7186902626038771</v>
+        <v>0.2520282119793289</v>
       </c>
       <c r="Q3">
-        <v>0.8748130526004338</v>
+        <v>0.06803486070599998</v>
       </c>
       <c r="R3">
-        <v>0.8748130526004338</v>
+        <v>0.6123137463539999</v>
       </c>
       <c r="S3">
-        <v>0.7186902626038771</v>
+        <v>0.03576915606594041</v>
       </c>
       <c r="T3">
-        <v>0.7186902626038771</v>
+        <v>0.03576915606594041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.06082199999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.182466</v>
+      </c>
+      <c r="I4">
+        <v>0.1419252066466042</v>
+      </c>
+      <c r="J4">
+        <v>0.1419252066466042</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2.901107</v>
+      </c>
+      <c r="N4">
+        <v>8.703321000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.6536452389637502</v>
+      </c>
+      <c r="P4">
+        <v>0.6536452389637503</v>
+      </c>
+      <c r="Q4">
+        <v>0.176451129954</v>
+      </c>
+      <c r="R4">
+        <v>1.588060169586</v>
+      </c>
+      <c r="S4">
+        <v>0.0927687356134992</v>
+      </c>
+      <c r="T4">
+        <v>0.09276873561349921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.06082199999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.182466</v>
+      </c>
+      <c r="I5">
+        <v>0.1419252066466042</v>
+      </c>
+      <c r="J5">
+        <v>0.1419252066466042</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.03082633333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.09247900000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.006945447381996902</v>
+      </c>
+      <c r="P5">
+        <v>0.006945447381996902</v>
+      </c>
+      <c r="Q5">
+        <v>0.001874919246</v>
+      </c>
+      <c r="R5">
+        <v>0.016874273214</v>
+      </c>
+      <c r="S5">
+        <v>0.0009857340549430261</v>
+      </c>
+      <c r="T5">
+        <v>0.0009857340549430261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.3677276666666667</v>
+      </c>
+      <c r="H6">
+        <v>1.103183</v>
+      </c>
+      <c r="I6">
+        <v>0.8580747933533959</v>
+      </c>
+      <c r="J6">
+        <v>0.8580747933533959</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.387828</v>
+      </c>
+      <c r="N6">
+        <v>1.163484</v>
+      </c>
+      <c r="O6">
+        <v>0.08738110167492384</v>
+      </c>
+      <c r="P6">
+        <v>0.08738110167492384</v>
+      </c>
+      <c r="Q6">
+        <v>0.142615085508</v>
+      </c>
+      <c r="R6">
+        <v>1.283535769572</v>
+      </c>
+      <c r="S6">
+        <v>0.07497952076270235</v>
+      </c>
+      <c r="T6">
+        <v>0.07497952076270235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.3677276666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.103183</v>
+      </c>
+      <c r="I7">
+        <v>0.8580747933533959</v>
+      </c>
+      <c r="J7">
+        <v>0.8580747933533959</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.118589666666667</v>
+      </c>
+      <c r="N7">
+        <v>3.355769</v>
+      </c>
+      <c r="O7">
+        <v>0.2520282119793289</v>
+      </c>
+      <c r="P7">
+        <v>0.2520282119793289</v>
+      </c>
+      <c r="Q7">
+        <v>0.4113363680807778</v>
+      </c>
+      <c r="R7">
+        <v>3.702027312727</v>
+      </c>
+      <c r="S7">
+        <v>0.2162590559133885</v>
+      </c>
+      <c r="T7">
+        <v>0.2162590559133885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.3677276666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.103183</v>
+      </c>
+      <c r="I8">
+        <v>0.8580747933533959</v>
+      </c>
+      <c r="J8">
+        <v>0.8580747933533959</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.901107</v>
+      </c>
+      <c r="N8">
+        <v>8.703321000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.6536452389637502</v>
+      </c>
+      <c r="P8">
+        <v>0.6536452389637503</v>
+      </c>
+      <c r="Q8">
+        <v>1.066817307860333</v>
+      </c>
+      <c r="R8">
+        <v>9.601355770743002</v>
+      </c>
+      <c r="S8">
+        <v>0.560876503350251</v>
+      </c>
+      <c r="T8">
+        <v>0.5608765033502511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3677276666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.103183</v>
+      </c>
+      <c r="I9">
+        <v>0.8580747933533959</v>
+      </c>
+      <c r="J9">
+        <v>0.8580747933533959</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.03082633333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.09247900000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.006945447381996902</v>
+      </c>
+      <c r="P9">
+        <v>0.006945447381996902</v>
+      </c>
+      <c r="Q9">
+        <v>0.01133569562855556</v>
+      </c>
+      <c r="R9">
+        <v>0.102021260657</v>
+      </c>
+      <c r="S9">
+        <v>0.005959713327053875</v>
+      </c>
+      <c r="T9">
+        <v>0.005959713327053875</v>
       </c>
     </row>
   </sheetData>
